--- a/Trossulus_edulis_distrudution_and_dynamics_in_Kandalaksha_English/R_calc_dustred_2020/data/Mytilus old and new samples morphotype count 2022.xlsx
+++ b/Trossulus_edulis_distrudution_and_dynamics_in_Kandalaksha_English/R_calc_dustred_2020/data/Mytilus old and new samples morphotype count 2022.xlsx
@@ -345,10 +345,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\ ##0.00\ &quot;₽&quot;_-;\-* #\ ##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\ ##0.00\ &quot;₽&quot;_-;\-* #\ ##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -359,6 +359,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -366,15 +374,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,38 +406,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,53 +421,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,14 +467,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,7 +512,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,121 +680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,49 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,27 +706,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -747,6 +736,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -762,11 +780,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,177 +803,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:10">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1977</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:10">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>2014</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:10">
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>1995</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:10">
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>2014</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:10">
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>1974</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:10">
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>2014</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:10">
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>1975</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:10">
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>2014</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:10">
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>1998</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:10">
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>2014</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:10">
+    <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:10">
+    <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
         <v>51</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:10">
+    <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:10">
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>1978</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:10">
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>2014</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:10">
+    <row r="81" spans="1:10">
       <c r="A81" s="2">
         <v>2004</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:10">
+    <row r="82" spans="1:10">
       <c r="A82" s="2">
         <v>2019</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:10">
+    <row r="83" spans="1:10">
       <c r="A83" s="2">
         <v>1988</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:10">
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>2021</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:10">
+    <row r="85" spans="1:10">
       <c r="A85" s="2">
         <v>2021</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:10">
+    <row r="86" spans="1:10">
       <c r="A86" s="2">
         <v>2021</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:10">
+    <row r="87" spans="1:10">
       <c r="A87" s="2">
         <v>2021</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:10">
+    <row r="88" spans="1:10">
       <c r="A88" s="2">
         <v>2021</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" hidden="1" spans="1:11">
+    <row r="89" s="1" customFormat="1" spans="1:11">
       <c r="A89" s="5">
         <v>2022</v>
       </c>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" s="1" customFormat="1" hidden="1" spans="1:11">
+    <row r="90" s="1" customFormat="1" spans="1:11">
       <c r="A90" s="5">
         <v>1967</v>
       </c>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" s="1" customFormat="1" hidden="1" spans="1:11">
+    <row r="91" s="1" customFormat="1" spans="1:11">
       <c r="A91" s="5">
         <v>1967</v>
       </c>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" s="1" customFormat="1" hidden="1" spans="1:11">
+    <row r="92" s="1" customFormat="1" spans="1:11">
       <c r="A92" s="5">
         <v>1967</v>
       </c>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" s="1" customFormat="1" hidden="1" spans="1:11">
+    <row r="93" s="1" customFormat="1" spans="1:11">
       <c r="A93" s="5">
         <v>1967</v>
       </c>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" s="1" customFormat="1" hidden="1" spans="1:11">
+    <row r="94" s="1" customFormat="1" spans="1:11">
       <c r="A94" s="5">
         <v>2022</v>
       </c>
@@ -4323,11 +4323,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J94">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Trossulus_edulis_distrudution_and_dynamics_in_Kandalaksha_English/R_calc_dustred_2020/data/Mytilus old and new samples morphotype count 2022.xlsx
+++ b/Trossulus_edulis_distrudution_and_dynamics_in_Kandalaksha_English/R_calc_dustred_2020/data/Mytilus old and new samples morphotype count 2022.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView windowWidth="18468" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Mytilus old and new samples mor" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mytilus old and new samples mor'!$A$1:$J$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mytilus old and new samples mor'!$A$1:$J$95</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="87">
   <si>
     <t>Year</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Luvenga</t>
   </si>
   <si>
-    <t>67.101766</t>
-  </si>
-  <si>
-    <t>32.673241</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -76,12 +70,6 @@
     <t>Matrenin 5_3</t>
   </si>
   <si>
-    <t>66.309527</t>
-  </si>
-  <si>
-    <t>33.629944</t>
-  </si>
-  <si>
     <t>Matrenin 12_1</t>
   </si>
   <si>
@@ -139,51 +127,21 @@
     <t>Sukhaya</t>
   </si>
   <si>
-    <t>66.314541</t>
-  </si>
-  <si>
-    <t>33.663061</t>
-  </si>
-  <si>
     <t>Voronya</t>
   </si>
   <si>
-    <t>66.932636</t>
-  </si>
-  <si>
-    <t>32.510255</t>
-  </si>
-  <si>
     <t>Youzhnaya</t>
   </si>
   <si>
-    <t>67.006452</t>
-  </si>
-  <si>
-    <t>32.575797</t>
-  </si>
-  <si>
     <t>ZRS</t>
   </si>
   <si>
-    <t>67.013857</t>
-  </si>
-  <si>
-    <t>32.517975</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>ZRS_subtidal</t>
   </si>
   <si>
-    <t>66.973122</t>
-  </si>
-  <si>
-    <t>32.573408</t>
-  </si>
-  <si>
     <t>Matrenin_stress_experiment_control_1</t>
   </si>
   <si>
@@ -280,21 +238,9 @@
     <t>Luvenga_next_to_stream</t>
   </si>
   <si>
-    <t>67.101887</t>
-  </si>
-  <si>
-    <t>32.697699</t>
-  </si>
-  <si>
     <t>Ovechiy</t>
   </si>
   <si>
-    <t>67.094935</t>
-  </si>
-  <si>
-    <t>32.452459</t>
-  </si>
-  <si>
     <t>f11</t>
   </si>
   <si>
@@ -316,12 +262,6 @@
     <t>Devichia_luda_new</t>
   </si>
   <si>
-    <t>66.9909</t>
-  </si>
-  <si>
-    <t>32.60343333</t>
-  </si>
-  <si>
     <t>Devichia_luda_13.10</t>
   </si>
   <si>
@@ -334,10 +274,10 @@
     <t>Medvezhy_17.07</t>
   </si>
   <si>
-    <t>32.672516667</t>
-  </si>
-  <si>
     <t>Medvezhy_18.06</t>
+  </si>
+  <si>
+    <t>Marenin_genetical_samplings</t>
   </si>
 </sst>
 </file>
@@ -345,15 +285,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\ ##0.00\ &quot;₽&quot;_-;\-* #\ ##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -368,7 +330,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,29 +352,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,8 +374,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,6 +390,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -450,16 +406,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,14 +415,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -497,7 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,7 +452,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,19 +572,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,151 +626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,6 +643,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -717,6 +666,47 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,58 +729,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,152 +748,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,10 +906,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,10 +1237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1304,7 +1250,9 @@
     <col min="5" max="5" width="10" style="2"/>
     <col min="6" max="6" width="36.8888888888889" style="3" customWidth="1"/>
     <col min="7" max="8" width="10" style="2"/>
-    <col min="9" max="11" width="10" style="3"/>
+    <col min="9" max="9" width="10.1111111111111" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.5555555555556" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1364,11 +1312,11 @@
       <c r="H2" s="2">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
+      <c r="I2" s="4">
+        <v>67.101766</v>
+      </c>
+      <c r="J2" s="4">
+        <v>32.673241</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1376,7 +1324,7 @@
         <v>2014</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -1396,11 +1344,11 @@
       <c r="H3" s="2">
         <v>95</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
+      <c r="I3" s="4">
+        <v>67.101766</v>
+      </c>
+      <c r="J3" s="4">
+        <v>32.673241</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1408,19 +1356,19 @@
         <v>2019</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="2">
         <v>30</v>
@@ -1428,11 +1376,11 @@
       <c r="H4" s="2">
         <v>60</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
+      <c r="I4" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J4" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1440,19 +1388,19 @@
         <v>2019</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G5" s="2">
         <v>9</v>
@@ -1460,11 +1408,11 @@
       <c r="H5" s="2">
         <v>74</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
+      <c r="I5" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J5" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1472,19 +1420,19 @@
         <v>2019</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
@@ -1492,11 +1440,11 @@
       <c r="H6" s="2">
         <v>69</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
+      <c r="I6" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J6" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1504,19 +1452,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>
@@ -1524,11 +1472,11 @@
       <c r="H7" s="2">
         <v>49</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>20</v>
+      <c r="I7" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J7" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1536,19 +1484,19 @@
         <v>2019</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2">
         <v>16</v>
@@ -1556,11 +1504,11 @@
       <c r="H8" s="2">
         <v>81</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>20</v>
+      <c r="I8" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J8" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1568,19 +1516,19 @@
         <v>2019</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2">
         <v>34</v>
@@ -1588,11 +1536,11 @@
       <c r="H9" s="2">
         <v>104</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>20</v>
+      <c r="I9" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J9" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1600,19 +1548,19 @@
         <v>2019</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2">
         <v>22</v>
@@ -1620,11 +1568,11 @@
       <c r="H10" s="2">
         <v>56</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>20</v>
+      <c r="I10" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J10" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1632,19 +1580,19 @@
         <v>2019</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2">
         <v>36</v>
@@ -1652,11 +1600,11 @@
       <c r="H11" s="2">
         <v>40</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>20</v>
+      <c r="I11" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J11" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1664,19 +1612,19 @@
         <v>2019</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
@@ -1684,11 +1632,11 @@
       <c r="H12" s="2">
         <v>70</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>20</v>
+      <c r="I12" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J12" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1696,19 +1644,19 @@
         <v>2019</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
@@ -1716,11 +1664,11 @@
       <c r="H13" s="2">
         <v>77</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>20</v>
+      <c r="I13" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J13" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1728,19 +1676,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
@@ -1748,11 +1696,11 @@
       <c r="H14" s="2">
         <v>67</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>20</v>
+      <c r="I14" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J14" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1760,19 +1708,19 @@
         <v>2019</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2">
         <v>13</v>
@@ -1780,11 +1728,11 @@
       <c r="H15" s="2">
         <v>50</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>20</v>
+      <c r="I15" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J15" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1792,19 +1740,19 @@
         <v>2019</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G16" s="2">
         <v>13</v>
@@ -1812,11 +1760,11 @@
       <c r="H16" s="2">
         <v>45</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>20</v>
+      <c r="I16" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J16" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1824,19 +1772,19 @@
         <v>2019</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G17" s="2">
         <v>8</v>
@@ -1844,11 +1792,11 @@
       <c r="H17" s="2">
         <v>78</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>20</v>
+      <c r="I17" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J17" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1856,19 +1804,19 @@
         <v>2019</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -1876,11 +1824,11 @@
       <c r="H18" s="2">
         <v>35</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>20</v>
+      <c r="I18" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J18" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1894,13 +1842,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -1908,11 +1856,11 @@
       <c r="H19" s="2">
         <v>14</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>20</v>
+      <c r="I19" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J19" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1923,16 +1871,16 @@
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1940,11 +1888,11 @@
       <c r="H20" s="2">
         <v>25</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>20</v>
+      <c r="I20" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J20" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1955,16 +1903,16 @@
         <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1972,11 +1920,11 @@
       <c r="H21" s="2">
         <v>25</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>20</v>
+      <c r="I21" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J21" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1987,16 +1935,16 @@
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -2004,11 +1952,11 @@
       <c r="H22" s="2">
         <v>25</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>20</v>
+      <c r="I22" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J22" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2019,16 +1967,16 @@
         <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -2036,11 +1984,11 @@
       <c r="H23" s="2">
         <v>25</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>20</v>
+      <c r="I23" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J23" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2051,16 +1999,16 @@
         <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -2068,11 +2016,11 @@
       <c r="H24" s="2">
         <v>37</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>20</v>
+      <c r="I24" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J24" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2083,16 +2031,16 @@
         <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -2100,11 +2048,11 @@
       <c r="H25" s="2">
         <v>59</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>20</v>
+      <c r="I25" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J25" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2115,16 +2063,16 @@
         <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
@@ -2132,11 +2080,11 @@
       <c r="H26" s="2">
         <v>60</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>20</v>
+      <c r="I26" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J26" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2147,16 +2095,16 @@
         <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
@@ -2164,11 +2112,11 @@
       <c r="H27" s="2">
         <v>76</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>20</v>
+      <c r="I27" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J27" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2179,16 +2127,16 @@
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -2196,11 +2144,11 @@
       <c r="H28" s="2">
         <v>95</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>20</v>
+      <c r="I28" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J28" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2211,16 +2159,16 @@
         <v>10</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
@@ -2228,11 +2176,11 @@
       <c r="H29" s="2">
         <v>79</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>20</v>
+      <c r="I29" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J29" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2243,16 +2191,16 @@
         <v>10</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
@@ -2260,11 +2208,11 @@
       <c r="H30" s="2">
         <v>54</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>20</v>
+      <c r="I30" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J30" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2275,16 +2223,16 @@
         <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -2292,11 +2240,11 @@
       <c r="H31" s="2">
         <v>71</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>20</v>
+      <c r="I31" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J31" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2307,16 +2255,16 @@
         <v>10</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
@@ -2324,11 +2272,11 @@
       <c r="H32" s="2">
         <v>109</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>20</v>
+      <c r="I32" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J32" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2339,16 +2287,16 @@
         <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G33" s="2">
         <v>11</v>
@@ -2356,11 +2304,11 @@
       <c r="H33" s="2">
         <v>297</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>20</v>
+      <c r="I33" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J33" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2371,16 +2319,16 @@
         <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
@@ -2388,11 +2336,11 @@
       <c r="H34" s="2">
         <v>339</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>20</v>
+      <c r="I34" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J34" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2403,16 +2351,16 @@
         <v>10</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -2420,11 +2368,11 @@
       <c r="H35" s="2">
         <v>305</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>20</v>
+      <c r="I35" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J35" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2435,16 +2383,16 @@
         <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G36" s="2">
         <v>5</v>
@@ -2452,11 +2400,11 @@
       <c r="H36" s="2">
         <v>273</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>20</v>
+      <c r="I36" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J36" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2467,16 +2415,16 @@
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E37" s="2">
         <v>3</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -2484,11 +2432,11 @@
       <c r="H37" s="2">
         <v>178</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>41</v>
+      <c r="I37" s="4">
+        <v>66.314541</v>
+      </c>
+      <c r="J37" s="4">
+        <v>33.663061</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2496,19 +2444,19 @@
         <v>2014</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E38" s="2">
         <v>3</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G38" s="2">
         <v>18</v>
@@ -2516,11 +2464,11 @@
       <c r="H38" s="2">
         <v>103</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>41</v>
+      <c r="I38" s="4">
+        <v>66.314541</v>
+      </c>
+      <c r="J38" s="4">
+        <v>33.663061</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2534,13 +2482,13 @@
         <v>11</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -2548,11 +2496,11 @@
       <c r="H39" s="2">
         <v>19</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>44</v>
+      <c r="I39" s="4">
+        <v>66.932636</v>
+      </c>
+      <c r="J39" s="4">
+        <v>32.510255</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2560,19 +2508,19 @@
         <v>2014</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E40" s="2">
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G40" s="2">
         <v>97</v>
@@ -2580,11 +2528,11 @@
       <c r="H40" s="2">
         <v>177</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>44</v>
+      <c r="I40" s="4">
+        <v>66.932636</v>
+      </c>
+      <c r="J40" s="4">
+        <v>32.510255</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2598,13 +2546,13 @@
         <v>11</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2">
         <v>5</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -2612,11 +2560,11 @@
       <c r="H41" s="2">
         <v>164</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>47</v>
+      <c r="I41" s="4">
+        <v>67.006452</v>
+      </c>
+      <c r="J41" s="4">
+        <v>32.575797</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2624,19 +2572,19 @@
         <v>2014</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2">
         <v>5</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G42" s="2">
         <v>84</v>
@@ -2644,11 +2592,11 @@
       <c r="H42" s="2">
         <v>390</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>47</v>
+      <c r="I42" s="4">
+        <v>67.006452</v>
+      </c>
+      <c r="J42" s="4">
+        <v>32.575797</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2659,16 +2607,16 @@
         <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2">
         <v>6</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G43" s="2">
         <v>2</v>
@@ -2676,11 +2624,11 @@
       <c r="H43" s="2">
         <v>98</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>50</v>
+      <c r="I43" s="4">
+        <v>67.013857</v>
+      </c>
+      <c r="J43" s="4">
+        <v>32.517975</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2688,19 +2636,19 @@
         <v>2014</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2">
         <v>6</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G44" s="2">
         <v>145</v>
@@ -2708,16 +2656,16 @@
       <c r="H44" s="2">
         <v>456</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>50</v>
+      <c r="I44" s="4">
+        <v>67.013857</v>
+      </c>
+      <c r="J44" s="4">
+        <v>32.517975</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>10</v>
@@ -2726,13 +2674,13 @@
         <v>11</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2">
         <v>7</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -2740,16 +2688,16 @@
       <c r="H45" s="2">
         <v>2</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>54</v>
+      <c r="I45" s="4">
+        <v>66.973122</v>
+      </c>
+      <c r="J45" s="4">
+        <v>32.573408</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>10</v>
@@ -2758,13 +2706,13 @@
         <v>11</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2">
         <v>7</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
@@ -2772,16 +2720,16 @@
       <c r="H46" s="2">
         <v>1</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>54</v>
+      <c r="I46" s="4">
+        <v>66.973122</v>
+      </c>
+      <c r="J46" s="4">
+        <v>32.573408</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>10</v>
@@ -2790,13 +2738,13 @@
         <v>11</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E47" s="2">
         <v>7</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
@@ -2804,11 +2752,11 @@
       <c r="H47" s="2">
         <v>1</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>54</v>
+      <c r="I47" s="4">
+        <v>66.973122</v>
+      </c>
+      <c r="J47" s="4">
+        <v>32.573408</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2822,13 +2770,13 @@
         <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E48" s="2">
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -2836,11 +2784,11 @@
       <c r="H48" s="2">
         <v>13</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>54</v>
+      <c r="I48" s="4">
+        <v>66.973122</v>
+      </c>
+      <c r="J48" s="4">
+        <v>32.573408</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2848,19 +2796,19 @@
         <v>2014</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E49" s="2">
         <v>7</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
@@ -2868,11 +2816,11 @@
       <c r="H49" s="2">
         <v>22</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>54</v>
+      <c r="I49" s="4">
+        <v>66.973122</v>
+      </c>
+      <c r="J49" s="4">
+        <v>32.573408</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2883,16 +2831,16 @@
         <v>10</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E50" s="2">
         <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G50" s="2">
         <v>2</v>
@@ -2900,11 +2848,11 @@
       <c r="H50" s="2">
         <v>12</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>20</v>
+      <c r="I50" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J50" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2915,16 +2863,16 @@
         <v>10</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E51" s="2">
         <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G51" s="2">
         <v>3</v>
@@ -2932,11 +2880,11 @@
       <c r="H51" s="2">
         <v>11</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>20</v>
+      <c r="I51" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J51" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2947,16 +2895,16 @@
         <v>10</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E52" s="2">
         <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -2964,11 +2912,11 @@
       <c r="H52" s="2">
         <v>13</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>20</v>
+      <c r="I52" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J52" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2979,16 +2927,16 @@
         <v>10</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E53" s="2">
         <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -2996,11 +2944,11 @@
       <c r="H53" s="2">
         <v>7</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>20</v>
+      <c r="I53" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J53" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3011,16 +2959,16 @@
         <v>10</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E54" s="2">
         <v>2</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -3028,11 +2976,11 @@
       <c r="H54" s="2">
         <v>7</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>20</v>
+      <c r="I54" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J54" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3043,16 +2991,16 @@
         <v>10</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E55" s="2">
         <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G55" s="2">
         <v>0</v>
@@ -3060,11 +3008,11 @@
       <c r="H55" s="2">
         <v>13</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>20</v>
+      <c r="I55" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J55" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3075,16 +3023,16 @@
         <v>10</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E56" s="2">
         <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -3092,11 +3040,11 @@
       <c r="H56" s="2">
         <v>12</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>20</v>
+      <c r="I56" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J56" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3107,16 +3055,16 @@
         <v>10</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E57" s="2">
         <v>2</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G57" s="2">
         <v>2</v>
@@ -3124,11 +3072,11 @@
       <c r="H57" s="2">
         <v>26</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>20</v>
+      <c r="I57" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J57" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3139,16 +3087,16 @@
         <v>10</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E58" s="2">
         <v>2</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G58" s="2">
         <v>3</v>
@@ -3156,11 +3104,11 @@
       <c r="H58" s="2">
         <v>6</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>20</v>
+      <c r="I58" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J58" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3171,16 +3119,16 @@
         <v>10</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E59" s="2">
         <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G59" s="2">
         <v>3</v>
@@ -3188,11 +3136,11 @@
       <c r="H59" s="2">
         <v>9</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>20</v>
+      <c r="I59" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J59" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3203,16 +3151,16 @@
         <v>10</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E60" s="2">
         <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
@@ -3220,11 +3168,11 @@
       <c r="H60" s="2">
         <v>9</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>20</v>
+      <c r="I60" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J60" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3235,16 +3183,16 @@
         <v>10</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E61" s="2">
         <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G61" s="2">
         <v>2</v>
@@ -3252,11 +3200,11 @@
       <c r="H61" s="2">
         <v>12</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>20</v>
+      <c r="I61" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J61" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3267,16 +3215,16 @@
         <v>10</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E62" s="2">
         <v>2</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G62" s="2">
         <v>0</v>
@@ -3284,11 +3232,11 @@
       <c r="H62" s="2">
         <v>14</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>20</v>
+      <c r="I62" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J62" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3299,16 +3247,16 @@
         <v>10</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E63" s="2">
         <v>2</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G63" s="2">
         <v>0</v>
@@ -3316,11 +3264,11 @@
       <c r="H63" s="2">
         <v>10</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>20</v>
+      <c r="I63" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J63" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3331,16 +3279,16 @@
         <v>10</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E64" s="2">
         <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G64" s="2">
         <v>0</v>
@@ -3348,11 +3296,11 @@
       <c r="H64" s="2">
         <v>4</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>20</v>
+      <c r="I64" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J64" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3363,16 +3311,16 @@
         <v>10</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E65" s="2">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G65" s="2">
         <v>0</v>
@@ -3380,11 +3328,11 @@
       <c r="H65" s="2">
         <v>10</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>20</v>
+      <c r="I65" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J65" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3395,16 +3343,16 @@
         <v>10</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E66" s="2">
         <v>2</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
@@ -3412,11 +3360,11 @@
       <c r="H66" s="2">
         <v>7</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>20</v>
+      <c r="I66" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J66" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3427,16 +3375,16 @@
         <v>10</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E67" s="2">
         <v>2</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G67" s="2">
         <v>0</v>
@@ -3444,11 +3392,11 @@
       <c r="H67" s="2">
         <v>3</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>20</v>
+      <c r="I67" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J67" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3459,16 +3407,16 @@
         <v>10</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E68" s="2">
         <v>2</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G68" s="2">
         <v>0</v>
@@ -3476,11 +3424,11 @@
       <c r="H68" s="2">
         <v>12</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>20</v>
+      <c r="I68" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J68" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3491,16 +3439,16 @@
         <v>10</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E69" s="2">
         <v>2</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
@@ -3508,11 +3456,11 @@
       <c r="H69" s="2">
         <v>6</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>20</v>
+      <c r="I69" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J69" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3523,16 +3471,16 @@
         <v>10</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E70" s="2">
         <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
@@ -3540,11 +3488,11 @@
       <c r="H70" s="2">
         <v>9</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>20</v>
+      <c r="I70" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J70" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3555,16 +3503,16 @@
         <v>10</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E71" s="2">
         <v>2</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G71" s="2">
         <v>0</v>
@@ -3572,11 +3520,11 @@
       <c r="H71" s="2">
         <v>11</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>20</v>
+      <c r="I71" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J71" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3587,16 +3535,16 @@
         <v>10</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E72" s="2">
         <v>2</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
@@ -3604,11 +3552,11 @@
       <c r="H72" s="2">
         <v>17</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>20</v>
+      <c r="I72" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J72" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3619,16 +3567,16 @@
         <v>10</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E73" s="2">
         <v>2</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G73" s="2">
         <v>12</v>
@@ -3636,11 +3584,11 @@
       <c r="H73" s="2">
         <v>7</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>20</v>
+      <c r="I73" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J73" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3651,16 +3599,16 @@
         <v>10</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E74" s="2">
         <v>2</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G74" s="2">
         <v>0</v>
@@ -3668,11 +3616,11 @@
       <c r="H74" s="2">
         <v>9</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>20</v>
+      <c r="I74" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J74" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3683,16 +3631,16 @@
         <v>10</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E75" s="2">
         <v>2</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G75" s="2">
         <v>0</v>
@@ -3700,11 +3648,11 @@
       <c r="H75" s="2">
         <v>10</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>20</v>
+      <c r="I75" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J75" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3715,16 +3663,16 @@
         <v>10</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E76" s="2">
         <v>2</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G76" s="2">
         <v>0</v>
@@ -3732,11 +3680,11 @@
       <c r="H76" s="2">
         <v>17</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>20</v>
+      <c r="I76" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J76" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3747,16 +3695,16 @@
         <v>10</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E77" s="2">
         <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G77" s="2">
         <v>0</v>
@@ -3764,11 +3712,11 @@
       <c r="H77" s="2">
         <v>13</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>20</v>
+      <c r="I77" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J77" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3779,16 +3727,16 @@
         <v>10</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E78" s="2">
         <v>2</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G78" s="2">
         <v>0</v>
@@ -3796,11 +3744,11 @@
       <c r="H78" s="2">
         <v>20</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>20</v>
+      <c r="I78" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J78" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3811,16 +3759,16 @@
         <v>10</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E79" s="2">
         <v>2</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
@@ -3828,11 +3776,11 @@
       <c r="H79" s="2">
         <v>8</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>20</v>
+      <c r="I79" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J79" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3843,16 +3791,16 @@
         <v>10</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E80" s="2">
         <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G80" s="2">
         <v>0</v>
@@ -3860,11 +3808,11 @@
       <c r="H80" s="2">
         <v>14</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>20</v>
+      <c r="I80" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J80" s="4">
+        <v>33.629944</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3875,7 +3823,7 @@
         <v>10</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>12</v>
@@ -3884,7 +3832,7 @@
         <v>8</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
@@ -3892,11 +3840,11 @@
       <c r="H81" s="2">
         <v>52</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>88</v>
+      <c r="I81" s="4">
+        <v>67.101887</v>
+      </c>
+      <c r="J81" s="4">
+        <v>32.697699</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3904,10 +3852,10 @@
         <v>2019</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>12</v>
@@ -3916,7 +3864,7 @@
         <v>8</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G82" s="2">
         <v>820</v>
@@ -3924,11 +3872,11 @@
       <c r="H82" s="2">
         <v>136</v>
       </c>
-      <c r="I82" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>88</v>
+      <c r="I82" s="4">
+        <v>67.101887</v>
+      </c>
+      <c r="J82" s="4">
+        <v>32.697699</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3939,16 +3887,16 @@
         <v>10</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E83" s="2">
         <v>9</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G83" s="2">
         <v>0</v>
@@ -3956,11 +3904,11 @@
       <c r="H83" s="2">
         <v>27</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>91</v>
+      <c r="I83" s="4">
+        <v>67.094935</v>
+      </c>
+      <c r="J83" s="4">
+        <v>32.452459</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3968,31 +3916,31 @@
         <v>2021</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E84" s="2">
         <v>9</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" s="5">
+      <c r="F84" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G84" s="6">
         <v>50</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="6">
         <v>4</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>91</v>
+      <c r="I84" s="4">
+        <v>67.094935</v>
+      </c>
+      <c r="J84" s="4">
+        <v>32.452459</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4000,31 +3948,31 @@
         <v>2021</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E85" s="2">
         <v>9</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G85" s="5">
+      <c r="F85" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G85" s="6">
         <v>49</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="6">
         <v>4</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>91</v>
+      <c r="I85" s="4">
+        <v>67.094935</v>
+      </c>
+      <c r="J85" s="4">
+        <v>32.452459</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4032,31 +3980,31 @@
         <v>2021</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E86" s="2">
         <v>9</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" s="5">
+      <c r="F86" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G86" s="6">
         <v>47</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="6">
         <v>6</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>91</v>
+      <c r="I86" s="4">
+        <v>67.094935</v>
+      </c>
+      <c r="J86" s="4">
+        <v>32.452459</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4064,31 +4012,31 @@
         <v>2021</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E87" s="2">
         <v>9</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G87" s="5">
+      <c r="F87" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G87" s="6">
         <v>106</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="6">
         <v>5</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>91</v>
+      <c r="I87" s="4">
+        <v>67.094935</v>
+      </c>
+      <c r="J87" s="4">
+        <v>32.452459</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4096,233 +4044,265 @@
         <v>2021</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E88" s="2">
         <v>9</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G88" s="5">
+      <c r="F88" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G88" s="6">
         <v>62</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88" s="6">
         <v>3</v>
       </c>
-      <c r="I88" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>91</v>
+      <c r="I88" s="4">
+        <v>67.094935</v>
+      </c>
+      <c r="J88" s="4">
+        <v>32.452459</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:11">
-      <c r="A89" s="5">
+      <c r="A89" s="6">
         <v>2022</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E89" s="5">
-        <v>10</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" s="5">
+      <c r="B89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89" s="6">
+        <v>10</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G89" s="6">
         <v>113</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="6">
         <v>132</v>
       </c>
-      <c r="I89" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K89" s="4"/>
+      <c r="I89" s="7">
+        <v>66.9909</v>
+      </c>
+      <c r="J89" s="7">
+        <v>32.60343333</v>
+      </c>
+      <c r="K89" s="5"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="1:11">
-      <c r="A90" s="5">
+      <c r="A90" s="6">
         <v>1967</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E90" s="5">
-        <v>10</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G90" s="5">
-        <v>0</v>
-      </c>
-      <c r="H90" s="5">
+      <c r="B90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90" s="6">
+        <v>10</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0</v>
+      </c>
+      <c r="H90" s="6">
         <v>52</v>
       </c>
-      <c r="I90" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K90" s="4"/>
+      <c r="I90" s="7">
+        <v>66.9909</v>
+      </c>
+      <c r="J90" s="7">
+        <v>32.60343333</v>
+      </c>
+      <c r="K90" s="5"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:11">
-      <c r="A91" s="5">
+      <c r="A91" s="6">
         <v>1967</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E91" s="5">
-        <v>10</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G91" s="5">
-        <v>0</v>
-      </c>
-      <c r="H91" s="5">
+      <c r="B91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="6">
+        <v>10</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G91" s="6">
+        <v>0</v>
+      </c>
+      <c r="H91" s="6">
         <v>143</v>
       </c>
-      <c r="I91" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K91" s="4"/>
+      <c r="I91" s="7">
+        <v>66.9909</v>
+      </c>
+      <c r="J91" s="7">
+        <v>32.60343333</v>
+      </c>
+      <c r="K91" s="5"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="1:11">
-      <c r="A92" s="5">
+      <c r="A92" s="6">
         <v>1967</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E92" s="5">
+      <c r="B92" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" s="6">
         <v>11</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G92" s="5">
-        <v>0</v>
-      </c>
-      <c r="H92" s="5">
+      <c r="F92" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G92" s="6">
+        <v>0</v>
+      </c>
+      <c r="H92" s="6">
         <v>36</v>
       </c>
-      <c r="I92" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K92" s="4"/>
+      <c r="I92" s="7">
+        <v>66.9909</v>
+      </c>
+      <c r="J92" s="7">
+        <v>32.672516667</v>
+      </c>
+      <c r="K92" s="5"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="1:11">
-      <c r="A93" s="5">
+      <c r="A93" s="6">
         <v>1967</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E93" s="5">
+      <c r="B93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" s="6">
         <v>11</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" s="5">
-        <v>0</v>
-      </c>
-      <c r="H93" s="5">
+      <c r="F93" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G93" s="6">
+        <v>0</v>
+      </c>
+      <c r="H93" s="6">
         <v>8</v>
       </c>
-      <c r="I93" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K93" s="4"/>
+      <c r="I93" s="7">
+        <v>66.9909</v>
+      </c>
+      <c r="J93" s="7">
+        <v>32.672516667</v>
+      </c>
+      <c r="K93" s="5"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:11">
-      <c r="A94" s="5">
+      <c r="A94" s="6">
         <v>2022</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E94" s="5">
+      <c r="B94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E94" s="6">
         <v>11</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" s="5">
+      <c r="F94" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G94" s="6">
         <v>79</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94" s="6">
         <v>159</v>
       </c>
-      <c r="I94" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K94" s="4"/>
+      <c r="I94" s="7">
+        <v>66.9909</v>
+      </c>
+      <c r="J94" s="7">
+        <v>32.672516667</v>
+      </c>
+      <c r="K94" s="5"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G95" s="2">
+        <v>15</v>
+      </c>
+      <c r="H95" s="2">
+        <v>42</v>
+      </c>
+      <c r="I95" s="4">
+        <v>66.309527</v>
+      </c>
+      <c r="J95" s="4">
+        <v>33.629944</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J94">
+  <autoFilter ref="A1:J95">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
